--- a/Output_testing/R1_201907/Country/HKD/MN/PORTUGAL_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/PORTUGAL_201907_HKD_MN.xlsx
@@ -810,136 +810,435 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>1044.093273</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>43.28525195417174</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>903.444838</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>34.0298213927472</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>1347.150673</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>45.85531213245383</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>582.903718</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>38.50088179105541</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-24.97483773917151</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>179.76485</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>7.452559101732562</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>239.348194</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>9.015466080394614</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>319.444944</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>10.87350354332209</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>241.837536</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>15.9734070973555</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>44.70561868789429</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>232.935294</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>9.656860311759781</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>321.94848</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>12.12674953826726</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>321.668658</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>10.94919596704796</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>198.470674</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>13.10901907588295</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>2.329818335516975</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>60.551224</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>2.510288165579907</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>87.45773</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.294247535802632</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>97.868903</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>3.331334189316659</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>60.008148</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.963547565926073</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-3.154466598653749</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>60.59442</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.512078953617493</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>95.493392</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>3.596924723308446</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>90.463358</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>3.079258765021538</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>46.515165</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.072333927292668</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>0.9042170198941601</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>92.65353899999999</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>3.84116235950567</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>99.08242799999999</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>3.73211200748455</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>72.938446</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.482732833691075</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>44.652337</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.94929384638334</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>11.83187427298997</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>METERS AND COUNTERS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>103.613459</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>4.29553067205543</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>82.589551</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>3.110879105423796</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>80.406327</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.736930096912144</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>35.287976</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.33077633692774</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-22.58477009637707</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>45.274059</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.87693868113164</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>47.447914</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.787208217883945</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>32.471778</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.105298423946782</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>29.473578</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.946734439147035</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>42.38353370807171</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>35.324512</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.464457670227862</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>34.399308</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.295709774451221</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>39.735995</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.352563221128736</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>22.449582</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.482798404179342</v>
+      </c>
+      <c r="K26" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>47.907932</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.986131853205922</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>49.765159</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.87449128172634</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>47.757148</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.625593166367214</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>22.320467</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.474270338224456</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-22.6994404484724</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>509.409872</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>21.11874027701199</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>693.885127</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>26.13639034251</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>487.922803</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>16.60827766079198</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>230.081774</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>15.19693717762549</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-19.43884052825052</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1270,501 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>3.007486</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>32.68488182145897</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>3.737023</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>33.53456641427507</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>3.191693</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>27.82262971456746</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>1.522536</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>26.01461431448285</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-16.5218649972531</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>3.091576</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>33.59875863164743</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>3.020156</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>27.10168547623906</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>3.282689</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>28.61586014540989</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>1.430044</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>24.43426172697415</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-26.87063506552547</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ANIMAL OR VEGETABLE FATS AND OILS, PROCESSED; WAXES, AND INEDIBLE MIXTURES OR PREPARATIONS OF ANIMAL OR VEGETABLE FATS OR OILS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>1.038162</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>17.73842065209108</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0.7088549761510647</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>2.684663</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>24.09110398128322</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>1.272258</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>11.09052883074787</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>0.704169</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>12.03169248360306</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>38.90907584509043</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>3.145533768068738</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>1.70723722997751</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>2.277032</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>19.84934584379543</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>6.666179135559505</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-37.04316899681138</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>1.075763</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>11.69122201163968</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>3.44193368972901</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>0.666872</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>5.813257328638133</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>6.637029787353284</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-25.7167007383581</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>5.102908136633549</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>3.492329452608331</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>2.385331321635779</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>3.156741137043285</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>12.13197137706887</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>4.979895036211105</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>4.05920102256018</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>2.324119135546549</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>1.36602115497714</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-61.71421182938334</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL AND CLOTHING ACCESSORIES OF OTHER THAN TEXTILE FABRICS; HEADGEAR OF ALL MATERIALS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.4477918382195507</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.5143846022149362</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.5993727935088196</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>0.3289097357281667</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.3560304947291511</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.5965921480601669</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.07615346876609413</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.5597495001382288</v>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>0.711449</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>7.731915123460312</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>1.527558747047908</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>1.508389608677869</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>0.7959173142685889</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>54.85007645768234</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1796,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>1044.093273</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>43.4510033356382</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>903.444838</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>34.17326379944561</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>1347.150673</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>46.0350688852499</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>582.903718</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>38.65029080358956</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-24.97483773917151</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>179.76485</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>7.481097042735664</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>239.348194</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>9.053468047467979</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>319.444944</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>10.91612860893757</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>241.837536</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>16.0353945342712</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>44.70561868789429</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>232.935294</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>9.693839140923059</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>321.94848</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>12.17786617855526</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>321.668658</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>10.99211775345035</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>198.470674</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>13.15989078334275</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>2.329818335516975</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>60.543658</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>2.519585896910322</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>87.35659</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>3.304307766369696</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>97.868903</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>3.34439330479319</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>60.008148</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>3.978928765015772</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-3.154466598653749</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>60.59442</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.521698409162207</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>95.493392</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3.612086470208896</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>90.463358</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.091329723235066</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>46.515165</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.084256625082895</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>0.9042170198941601</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>92.65353899999999</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.855871248533257</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>99.08242799999999</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3.747843595442155</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>72.938446</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.492465359138844</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>44.652337</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.960739066876019</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>11.83187427298997</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>METERS AND COUNTERS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>103.613459</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>4.311979464909369</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>82.589551</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>3.123992074213132</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>80.406327</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.747659097413322</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>35.287976</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.339821298360786</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-22.58477009637707</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>45.274059</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.884126006266186</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>47.447914</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.794741652899242</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>32.471778</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.109631288479149</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>29.473578</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.954289062747546</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>42.38353370807171</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>47.907932</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.99373730965081</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>49.765159</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.882392632064997</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>47.757148</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.631965630872735</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>22.320467</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.479991487070811</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-22.6994404484724</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>94.00557000000001</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>3.912137393532053</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>78.74050099999999</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>2.97839978623411</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>46.216888</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.579331596222926</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>21.600661</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.43226368852867</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-35.21676915400068</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>441.534921</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>18.37492475173887</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>638.50128</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>24.15163799709892</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>469.970338</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>16.05990875220695</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>225.078077</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>14.92413388511398</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-16.27605997783149</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2254,437 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>347.378022</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>34.86185805215488</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>311.221718</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>25.77489949956556</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>413.212716</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>35.76706115017836</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>195.175205</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>33.17646351774313</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-17.05933634501152</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>14.600307</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>1.46524477058564</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>9.665988</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>0.8005221192950508</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>13.631514</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>1.179923017682525</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>44.896316</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>7.631609711157046</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>586.1004808598934</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>0.879591</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.0728463610168824</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>57.640956</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>4.989313053973731</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>30.504535</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>5.185251848733646</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>34.4300089547924</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>73.25871100000001</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>7.352033295778964</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>19.888103</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.647101813318852</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>31.35324</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>2.713888534679601</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>21.64825</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>3.679834107759655</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>8.66616185941076</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>38.734593</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>3.887292221595965</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>47.270017</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>3.914829419191611</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>44.386619</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>3.842037900940756</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>20.500412</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>3.484721180729404</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-19.63660796467531</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>FABRICS, WOVEN, OF MAN-MADE TEXTILE MATERIALS (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>21.01692</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>2.1091975753535</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>18.837563</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.560097721527694</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>27.137992</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>2.349023110307794</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>19.945992</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>3.390479215396219</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>61.76456944135808</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>2.188358</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.2196173077503952</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>3.635893</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.3011190133786676</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>11.365804</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.9838066229523821</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>18.820663</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>3.199192435326188</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>287.4983477339557</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>4.25245</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.4267636375506969</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>9.658701000000001</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.7999186212684339</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>24.232099</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.097493453541676</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>18.222435</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>3.097503855481774</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>35.2744353009892</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>27.316006</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>2.741355708807078</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>36.398699</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>3.014483740623581</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>33.368212</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>2.888301431353132</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>15.262503</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.594365785187442</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-30.41899178882719</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>15.620351</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.567613449324193</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>14.141674</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.171191485118719</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>13.651282</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.181634105549475</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>14.200238</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>2.413798811945758</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>127.0504308929232</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>451.612591</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>45.3225392653306</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>735.8625050000001</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>60.94299020569495</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>485.307987</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>42.00751761884057</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>189.117634</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>32.14677953053974</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-26.83941369164891</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
